--- a/code_master.xlsx
+++ b/code_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\divliv\divliv-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0383DCC9-9BA9-4413-86B6-A24B31FB2FCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B021B-9289-4A84-AE9E-1BCBA4FAB5AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="-120" windowWidth="27675" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>グループ名</t>
     <rPh sb="4" eb="5">
@@ -63,13 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示名</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウジメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
@@ -117,6 +110,23 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBIネオモバイル証券</t>
+    <rPh sb="9" eb="11">
+      <t>ショウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名短縮</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンシュク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,16 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="9" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -488,141 +501,149 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
